--- a/ONCHO/OEM/Guinea Conakry/2022 june/gn_oncho_oem_1_site_202205_v1.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/2022 june/gn_oncho_oem_1_site_202205_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\GUINEE CONAKRY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CC55E6-4948-43D8-BA64-AB9285618B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDFED05-E9B7-4F16-AA1A-3D78FF0C4EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="484">
   <si>
     <t>type</t>
   </si>
@@ -1072,18 +1072,6 @@
     <t>Decembre</t>
   </si>
   <si>
-    <t>select_one recorder_list</t>
-  </si>
-  <si>
-    <t>Select the recorder :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koly Béavogui </t>
-  </si>
-  <si>
-    <t>recorder_list</t>
-  </si>
-  <si>
     <t>Donghol Touma</t>
   </si>
   <si>
@@ -1357,15 +1345,6 @@
     <t>river_list</t>
   </si>
   <si>
-    <t xml:space="preserve">ALPHA OUMAR BAH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaston CHERIF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK </t>
-  </si>
-  <si>
     <t>c_recorderID</t>
   </si>
   <si>
@@ -1378,9 +1357,6 @@
     <t>sub_district_list = ${c_sub_district}</t>
   </si>
   <si>
-    <t>1. Personne remplissant le questionnaire :</t>
-  </si>
-  <si>
     <t>2. Sélectionnez le District/Préfecture :</t>
   </si>
   <si>
@@ -1487,6 +1463,27 @@
   </si>
   <si>
     <t>13. Remarques / Observations :</t>
+  </si>
+  <si>
+    <t>Please enter the recorder code:</t>
+  </si>
+  <si>
+    <t>1. Veuillez entrer l'identifiant de l'enregistreur:</t>
+  </si>
+  <si>
+    <t>Recorder ID is the 2-digit code assigned to you or your team.</t>
+  </si>
+  <si>
+    <t>L'identifiant de l'enregistreur est un code à 2 chiffres qui vous a été attribué, à vous ou à votre équipe.</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>Only 2 digits</t>
+  </si>
+  <si>
+    <t>Code sur 2 chiffres uniquement</t>
   </si>
 </sst>
 </file>
@@ -1939,11 +1936,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1977,13 +1974,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>4</v>
@@ -1995,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>7</v>
@@ -2016,25 +2013,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="46.8">
-      <c r="A2" s="3" t="s">
-        <v>346</v>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="124.8">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="18"/>
+        <v>478</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>480</v>
+      </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>483</v>
+      </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14" t="s">
@@ -2055,7 +2062,7 @@
         <v>318</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -2075,13 +2082,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -2097,7 +2104,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="18" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="62.4">
@@ -2108,10 +2115,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2127,7 +2134,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="18" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2141,7 +2148,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2155,16 +2162,16 @@
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="31.2">
       <c r="A7" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -2194,7 +2201,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2221,7 +2228,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -2245,7 +2252,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M12" s="14"/>
     </row>
@@ -2260,7 +2267,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>14</v>
@@ -2277,7 +2284,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>14</v>
@@ -2294,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>14</v>
@@ -2311,10 +2318,10 @@
         <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>14</v>
@@ -2331,7 +2338,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -2343,7 +2350,7 @@
         <v>327</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>14</v>
@@ -2360,7 +2367,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L18" t="s">
         <v>40</v>
@@ -2380,7 +2387,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2407,11 +2414,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G539"/>
+  <dimension ref="A1:G535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F539"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2432,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>49</v>
@@ -2455,159 +2462,151 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>441</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="11"/>
       <c r="F3" s="2"/>
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>348</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="11"/>
       <c r="F4" s="2"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>442</v>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>443</v>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="6"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>331</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="6"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="20"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>333</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
       <c r="A10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>332</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>331</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>452</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>453</v>
+        <v>52</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="10"/>
     </row>
@@ -2616,10 +2615,10 @@
         <v>52</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="10"/>
@@ -2629,10 +2628,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="10"/>
@@ -2642,10 +2641,10 @@
         <v>52</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="10"/>
@@ -2655,10 +2654,10 @@
         <v>52</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="10"/>
@@ -2668,10 +2667,10 @@
         <v>52</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="10"/>
@@ -2681,10 +2680,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="10"/>
@@ -2694,10 +2693,10 @@
         <v>52</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="10"/>
@@ -2707,70 +2706,70 @@
         <v>52</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1">
-      <c r="A24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1">
-      <c r="A25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>62</v>
+      <c r="A25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1">
-      <c r="A26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>63</v>
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1">
-      <c r="A27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>64</v>
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
     </row>
@@ -2778,11 +2777,11 @@
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>71</v>
+      <c r="B29" t="s">
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="10"/>
@@ -2792,10 +2791,10 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="10"/>
@@ -2805,10 +2804,10 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="10"/>
@@ -2818,10 +2817,10 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="10"/>
@@ -2831,71 +2830,79 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" s="4" customFormat="1">
-      <c r="A34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1">
-      <c r="A35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="7"/>
+      <c r="A35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" s="4" customFormat="1">
-      <c r="A36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1">
+      <c r="A37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1">
+      <c r="A38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1">
-      <c r="A37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="7"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1">
@@ -2903,13 +2910,13 @@
         <v>69</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -2918,88 +2925,84 @@
         <v>69</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1">
+    <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" s="4" customFormat="1">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1">
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="10"/>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3007,13 +3010,13 @@
         <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>346</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>346</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3021,13 +3024,13 @@
         <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3035,13 +3038,13 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3049,13 +3052,13 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3063,13 +3066,13 @@
         <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>350</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>350</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3077,13 +3080,13 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3091,13 +3094,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3105,13 +3108,13 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3119,13 +3122,13 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3133,13 +3136,13 @@
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3147,13 +3150,13 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3161,13 +3164,13 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3175,13 +3178,13 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3189,13 +3192,13 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3203,13 +3206,13 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3217,13 +3220,13 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3231,13 +3234,13 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3245,13 +3248,13 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3259,223 +3262,223 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
         <v>115</v>
       </c>
-      <c r="C75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="11" t="s">
-        <v>69</v>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>449</v>
+      </c>
+      <c r="C81" t="s">
+        <v>449</v>
+      </c>
+      <c r="E81" t="s">
         <v>119</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3483,13 +3486,13 @@
         <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3497,13 +3500,13 @@
         <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3511,13 +3514,13 @@
         <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3525,13 +3528,13 @@
         <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>457</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>457</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3539,13 +3542,13 @@
         <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3553,13 +3556,13 @@
         <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3567,13 +3570,13 @@
         <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>450</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3581,13 +3584,13 @@
         <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>451</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>451</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3595,13 +3598,13 @@
         <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3609,10 +3612,10 @@
         <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
         <v>85</v>
@@ -3623,13 +3626,13 @@
         <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3637,10 +3640,10 @@
         <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C93" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E93" t="s">
         <v>99</v>
@@ -3651,13 +3654,13 @@
         <v>70</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="E94" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3665,13 +3668,13 @@
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3679,13 +3682,13 @@
         <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E96" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3693,13 +3696,13 @@
         <v>70</v>
       </c>
       <c r="B97" t="s">
-        <v>460</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>460</v>
+        <v>132</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3707,13 +3710,13 @@
         <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3721,13 +3724,13 @@
         <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
       <c r="C99" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3735,13 +3738,13 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3749,13 +3752,13 @@
         <v>70</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3763,13 +3766,13 @@
         <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="C102" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="E102" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3777,13 +3780,13 @@
         <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3791,13 +3794,13 @@
         <v>70</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="C104" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="E104" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3805,13 +3808,13 @@
         <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>462</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s">
-        <v>462</v>
+        <v>135</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3819,13 +3822,13 @@
         <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="E106" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3833,13 +3836,13 @@
         <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E107" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3847,13 +3850,13 @@
         <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>354</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3861,13 +3864,13 @@
         <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3875,13 +3878,13 @@
         <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E110" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3889,13 +3892,13 @@
         <v>70</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E111" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3903,13 +3906,13 @@
         <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="E112" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3917,13 +3920,13 @@
         <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E113" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3931,13 +3934,13 @@
         <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3945,13 +3948,13 @@
         <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3959,13 +3962,13 @@
         <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>463</v>
+        <v>145</v>
       </c>
       <c r="C116" t="s">
-        <v>463</v>
+        <v>145</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3973,13 +3976,13 @@
         <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E117" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3987,13 +3990,13 @@
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C118" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4001,13 +4004,13 @@
         <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E119" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4015,13 +4018,13 @@
         <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4029,13 +4032,13 @@
         <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E121" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4043,13 +4046,13 @@
         <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4057,13 +4060,13 @@
         <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4071,13 +4074,13 @@
         <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C124" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E124" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4085,13 +4088,13 @@
         <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4099,13 +4102,13 @@
         <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4113,13 +4116,13 @@
         <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C127" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E127" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4127,13 +4130,13 @@
         <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="E128" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4141,13 +4144,13 @@
         <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E129" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4155,13 +4158,13 @@
         <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C130" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E130" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4169,10 +4172,10 @@
         <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E131" t="s">
         <v>82</v>
@@ -4183,13 +4186,13 @@
         <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>355</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>355</v>
+        <v>160</v>
       </c>
       <c r="E132" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4197,13 +4200,13 @@
         <v>70</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E133" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4211,13 +4214,13 @@
         <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E134" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4225,13 +4228,13 @@
         <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E135" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4239,13 +4242,13 @@
         <v>70</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E136" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4253,13 +4256,13 @@
         <v>70</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E137" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4267,13 +4270,13 @@
         <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C138" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E138" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4281,13 +4284,13 @@
         <v>70</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E139" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4295,13 +4298,13 @@
         <v>70</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4309,13 +4312,13 @@
         <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E141" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4323,13 +4326,13 @@
         <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E142" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4337,13 +4340,13 @@
         <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>456</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>456</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4351,13 +4354,13 @@
         <v>70</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E144" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4365,13 +4368,13 @@
         <v>70</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E145" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4379,13 +4382,13 @@
         <v>70</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E146" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4393,13 +4396,13 @@
         <v>70</v>
       </c>
       <c r="B147" t="s">
-        <v>464</v>
+        <v>174</v>
       </c>
       <c r="C147" t="s">
-        <v>464</v>
+        <v>174</v>
       </c>
       <c r="E147" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4407,13 +4410,13 @@
         <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E148" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4421,13 +4424,13 @@
         <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C149" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E149" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4435,13 +4438,13 @@
         <v>70</v>
       </c>
       <c r="B150" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E150" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4449,13 +4452,13 @@
         <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E151" t="s">
-        <v>116</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4463,13 +4466,13 @@
         <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E152" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4477,13 +4480,13 @@
         <v>70</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C153" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E153" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4491,13 +4494,13 @@
         <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E154" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4505,13 +4508,13 @@
         <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C155" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E155" t="s">
-        <v>350</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4519,13 +4522,13 @@
         <v>70</v>
       </c>
       <c r="B156" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E156" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4533,13 +4536,13 @@
         <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C157" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E157" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4547,13 +4550,13 @@
         <v>70</v>
       </c>
       <c r="B158" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E158" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4561,13 +4564,13 @@
         <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C159" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E159" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4575,13 +4578,13 @@
         <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C160" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E160" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4589,13 +4592,13 @@
         <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E161" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4603,13 +4606,13 @@
         <v>70</v>
       </c>
       <c r="B162" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E162" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4617,13 +4620,13 @@
         <v>70</v>
       </c>
       <c r="B163" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E163" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4631,13 +4634,13 @@
         <v>70</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C164" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E164" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4645,13 +4648,13 @@
         <v>70</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C165" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E165" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4659,13 +4662,13 @@
         <v>70</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E166" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4673,13 +4676,13 @@
         <v>70</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="E167" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4687,13 +4690,13 @@
         <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="C168" t="s">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="E168" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4701,13 +4704,13 @@
         <v>70</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C169" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E169" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4715,13 +4718,13 @@
         <v>70</v>
       </c>
       <c r="B170" t="s">
-        <v>193</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>193</v>
+        <v>354</v>
       </c>
       <c r="E170" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4729,13 +4732,13 @@
         <v>70</v>
       </c>
       <c r="B171" t="s">
-        <v>356</v>
+        <v>195</v>
       </c>
       <c r="C171" t="s">
-        <v>356</v>
+        <v>195</v>
       </c>
       <c r="E171" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4743,13 +4746,13 @@
         <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C172" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="E172" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4757,13 +4760,13 @@
         <v>70</v>
       </c>
       <c r="B173" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C173" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E173" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4771,13 +4774,13 @@
         <v>70</v>
       </c>
       <c r="B174" t="s">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="E174" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4785,13 +4788,13 @@
         <v>70</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E175" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4799,13 +4802,13 @@
         <v>70</v>
       </c>
       <c r="B176" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="C176" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="E176" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4813,13 +4816,13 @@
         <v>70</v>
       </c>
       <c r="B177" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C177" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E177" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4827,13 +4830,13 @@
         <v>70</v>
       </c>
       <c r="B178" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C178" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E178" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4841,13 +4844,13 @@
         <v>70</v>
       </c>
       <c r="B179" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C179" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E179" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4855,13 +4858,13 @@
         <v>70</v>
       </c>
       <c r="B180" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C180" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E180" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4869,13 +4872,13 @@
         <v>70</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>458</v>
       </c>
       <c r="C181" t="s">
-        <v>200</v>
+        <v>458</v>
       </c>
       <c r="E181" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4883,13 +4886,13 @@
         <v>70</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C182" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E182" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4897,13 +4900,13 @@
         <v>70</v>
       </c>
       <c r="B183" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C183" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E183" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4911,13 +4914,13 @@
         <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="C184" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="E184" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4925,13 +4928,13 @@
         <v>70</v>
       </c>
       <c r="B185" t="s">
-        <v>466</v>
+        <v>206</v>
       </c>
       <c r="C185" t="s">
-        <v>466</v>
+        <v>206</v>
       </c>
       <c r="E185" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4939,13 +4942,13 @@
         <v>70</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C186" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E186" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4953,13 +4956,13 @@
         <v>70</v>
       </c>
       <c r="B187" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C187" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E187" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4967,13 +4970,13 @@
         <v>70</v>
       </c>
       <c r="B188" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="C188" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="E188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4981,13 +4984,13 @@
         <v>70</v>
       </c>
       <c r="B189" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C189" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E189" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4995,13 +4998,13 @@
         <v>70</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C190" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E190" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5009,13 +5012,13 @@
         <v>70</v>
       </c>
       <c r="B191" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C191" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E191" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5023,13 +5026,13 @@
         <v>70</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C192" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E192" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5037,13 +5040,13 @@
         <v>70</v>
       </c>
       <c r="B193" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C193" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E193" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5051,13 +5054,13 @@
         <v>70</v>
       </c>
       <c r="B194" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C194" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E194" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5065,13 +5068,13 @@
         <v>70</v>
       </c>
       <c r="B195" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C195" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E195" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5079,13 +5082,13 @@
         <v>70</v>
       </c>
       <c r="B196" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E196" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5093,13 +5096,13 @@
         <v>70</v>
       </c>
       <c r="B197" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E197" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5107,13 +5110,13 @@
         <v>70</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C198" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E198" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5121,13 +5124,13 @@
         <v>70</v>
       </c>
       <c r="B199" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C199" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E199" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5135,13 +5138,13 @@
         <v>70</v>
       </c>
       <c r="B200" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C200" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E200" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5149,13 +5152,13 @@
         <v>70</v>
       </c>
       <c r="B201" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C201" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E201" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5163,13 +5166,13 @@
         <v>70</v>
       </c>
       <c r="B202" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C202" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E202" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5177,13 +5180,13 @@
         <v>70</v>
       </c>
       <c r="B203" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C203" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E203" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5191,13 +5194,13 @@
         <v>70</v>
       </c>
       <c r="B204" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="C204" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="E204" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5205,13 +5208,13 @@
         <v>70</v>
       </c>
       <c r="B205" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C205" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E205" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5219,13 +5222,13 @@
         <v>70</v>
       </c>
       <c r="B206" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C206" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E206" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5233,13 +5236,13 @@
         <v>70</v>
       </c>
       <c r="B207" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C207" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E207" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5247,13 +5250,13 @@
         <v>70</v>
       </c>
       <c r="B208" t="s">
-        <v>467</v>
+        <v>228</v>
       </c>
       <c r="C208" t="s">
-        <v>467</v>
+        <v>228</v>
       </c>
       <c r="E208" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5261,13 +5264,13 @@
         <v>70</v>
       </c>
       <c r="B209" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C209" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E209" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5275,13 +5278,13 @@
         <v>70</v>
       </c>
       <c r="B210" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C210" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E210" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5289,13 +5292,13 @@
         <v>70</v>
       </c>
       <c r="B211" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C211" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E211" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5303,13 +5306,13 @@
         <v>70</v>
       </c>
       <c r="B212" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C212" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E212" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5317,13 +5320,13 @@
         <v>70</v>
       </c>
       <c r="B213" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C213" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E213" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5331,13 +5334,13 @@
         <v>70</v>
       </c>
       <c r="B214" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C214" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E214" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5345,13 +5348,13 @@
         <v>70</v>
       </c>
       <c r="B215" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C215" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E215" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5359,13 +5362,13 @@
         <v>70</v>
       </c>
       <c r="B216" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="C216" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="E216" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5373,13 +5376,13 @@
         <v>70</v>
       </c>
       <c r="B217" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C217" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E217" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5387,13 +5390,13 @@
         <v>70</v>
       </c>
       <c r="B218" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C218" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E218" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5401,13 +5404,13 @@
         <v>70</v>
       </c>
       <c r="B219" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C219" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E219" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5415,13 +5418,13 @@
         <v>70</v>
       </c>
       <c r="B220" t="s">
-        <v>360</v>
+        <v>239</v>
       </c>
       <c r="C220" t="s">
-        <v>360</v>
+        <v>239</v>
       </c>
       <c r="E220" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5429,13 +5432,13 @@
         <v>70</v>
       </c>
       <c r="B221" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C221" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E221" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5443,13 +5446,13 @@
         <v>70</v>
       </c>
       <c r="B222" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C222" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E222" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5457,13 +5460,13 @@
         <v>70</v>
       </c>
       <c r="B223" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C223" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E223" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5471,13 +5474,13 @@
         <v>70</v>
       </c>
       <c r="B224" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C224" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E224" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5485,13 +5488,13 @@
         <v>70</v>
       </c>
       <c r="B225" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C225" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E225" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5499,13 +5502,13 @@
         <v>70</v>
       </c>
       <c r="B226" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C226" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E226" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5513,13 +5516,13 @@
         <v>70</v>
       </c>
       <c r="B227" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C227" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E227" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5527,13 +5530,13 @@
         <v>70</v>
       </c>
       <c r="B228" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C228" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E228" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5541,13 +5544,13 @@
         <v>70</v>
       </c>
       <c r="B229" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C229" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E229" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5555,13 +5558,13 @@
         <v>70</v>
       </c>
       <c r="B230" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C230" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E230" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5569,13 +5572,13 @@
         <v>70</v>
       </c>
       <c r="B231" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E231" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5583,10 +5586,10 @@
         <v>70</v>
       </c>
       <c r="B232" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C232" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E232" t="s">
         <v>82</v>
@@ -5597,13 +5600,13 @@
         <v>70</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C233" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E233" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5611,13 +5614,13 @@
         <v>70</v>
       </c>
       <c r="B234" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="C234" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="E234" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5625,13 +5628,13 @@
         <v>70</v>
       </c>
       <c r="B235" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C235" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E235" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5639,13 +5642,13 @@
         <v>70</v>
       </c>
       <c r="B236" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C236" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E236" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5653,13 +5656,13 @@
         <v>70</v>
       </c>
       <c r="B237" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C237" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E237" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5667,13 +5670,13 @@
         <v>70</v>
       </c>
       <c r="B238" t="s">
-        <v>468</v>
+        <v>256</v>
       </c>
       <c r="C238" t="s">
-        <v>468</v>
+        <v>256</v>
       </c>
       <c r="E238" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5681,13 +5684,13 @@
         <v>70</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C239" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E239" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5695,13 +5698,13 @@
         <v>70</v>
       </c>
       <c r="B240" t="s">
-        <v>254</v>
+        <v>461</v>
       </c>
       <c r="C240" t="s">
-        <v>254</v>
+        <v>461</v>
       </c>
       <c r="E240" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5709,13 +5712,13 @@
         <v>70</v>
       </c>
       <c r="B241" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C241" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E241" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5723,13 +5726,13 @@
         <v>70</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C242" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E242" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5737,13 +5740,13 @@
         <v>70</v>
       </c>
       <c r="B243" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C243" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E243" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5751,13 +5754,13 @@
         <v>70</v>
       </c>
       <c r="B244" t="s">
-        <v>469</v>
+        <v>261</v>
       </c>
       <c r="C244" t="s">
-        <v>469</v>
+        <v>261</v>
       </c>
       <c r="E244" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5765,13 +5768,13 @@
         <v>70</v>
       </c>
       <c r="B245" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C245" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E245" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5779,13 +5782,13 @@
         <v>70</v>
       </c>
       <c r="B246" t="s">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="C246" t="s">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="E246" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5793,13 +5796,13 @@
         <v>70</v>
       </c>
       <c r="B247" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C247" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E247" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5807,13 +5810,13 @@
         <v>70</v>
       </c>
       <c r="B248" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C248" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E248" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5821,13 +5824,13 @@
         <v>70</v>
       </c>
       <c r="B249" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="E249" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5835,13 +5838,13 @@
         <v>70</v>
       </c>
       <c r="B250" t="s">
-        <v>361</v>
+        <v>265</v>
       </c>
       <c r="C250" t="s">
-        <v>361</v>
+        <v>265</v>
       </c>
       <c r="E250" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5849,13 +5852,13 @@
         <v>70</v>
       </c>
       <c r="B251" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C251" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E251" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5863,13 +5866,13 @@
         <v>70</v>
       </c>
       <c r="B252" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C252" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E252" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5877,13 +5880,13 @@
         <v>70</v>
       </c>
       <c r="B253" t="s">
-        <v>470</v>
+        <v>268</v>
       </c>
       <c r="C253" t="s">
-        <v>470</v>
+        <v>268</v>
       </c>
       <c r="E253" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5891,13 +5894,13 @@
         <v>70</v>
       </c>
       <c r="B254" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C254" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E254" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5905,13 +5908,13 @@
         <v>70</v>
       </c>
       <c r="B255" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C255" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E255" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5919,13 +5922,13 @@
         <v>70</v>
       </c>
       <c r="B256" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C256" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E256" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5933,13 +5936,13 @@
         <v>70</v>
       </c>
       <c r="B257" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C257" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E257" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5947,13 +5950,13 @@
         <v>70</v>
       </c>
       <c r="B258" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C258" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E258" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5961,13 +5964,13 @@
         <v>70</v>
       </c>
       <c r="B259" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="C259" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="E259" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5975,13 +5978,13 @@
         <v>70</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C260" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E260" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5989,13 +5992,13 @@
         <v>70</v>
       </c>
       <c r="B261" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C261" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E261" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6003,13 +6006,13 @@
         <v>70</v>
       </c>
       <c r="B262" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C262" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E262" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6017,13 +6020,13 @@
         <v>70</v>
       </c>
       <c r="B263" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="C263" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="E263" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6031,13 +6034,13 @@
         <v>70</v>
       </c>
       <c r="B264" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C264" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E264" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6045,13 +6048,13 @@
         <v>70</v>
       </c>
       <c r="B265" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C265" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E265" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6059,13 +6062,13 @@
         <v>70</v>
       </c>
       <c r="B266" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C266" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E266" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6073,13 +6076,13 @@
         <v>70</v>
       </c>
       <c r="B267" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C267" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E267" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6087,13 +6090,13 @@
         <v>70</v>
       </c>
       <c r="B268" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C268" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E268" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6101,13 +6104,13 @@
         <v>70</v>
       </c>
       <c r="B269" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C269" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E269" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6115,13 +6118,13 @@
         <v>70</v>
       </c>
       <c r="B270" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C270" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E270" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6129,13 +6132,13 @@
         <v>70</v>
       </c>
       <c r="B271" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C271" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E271" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6143,13 +6146,13 @@
         <v>70</v>
       </c>
       <c r="B272" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C272" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E272" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6157,13 +6160,13 @@
         <v>70</v>
       </c>
       <c r="B273" t="s">
-        <v>283</v>
+        <v>463</v>
       </c>
       <c r="C273" t="s">
-        <v>283</v>
+        <v>463</v>
       </c>
       <c r="E273" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6171,13 +6174,13 @@
         <v>70</v>
       </c>
       <c r="B274" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C274" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E274" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6185,13 +6188,13 @@
         <v>70</v>
       </c>
       <c r="B275" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C275" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E275" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6199,13 +6202,13 @@
         <v>70</v>
       </c>
       <c r="B276" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C276" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E276" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6213,13 +6216,13 @@
         <v>70</v>
       </c>
       <c r="B277" t="s">
-        <v>471</v>
+        <v>290</v>
       </c>
       <c r="C277" t="s">
-        <v>471</v>
+        <v>290</v>
       </c>
       <c r="E277" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6227,13 +6230,13 @@
         <v>70</v>
       </c>
       <c r="B278" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C278" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E278" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6241,13 +6244,13 @@
         <v>70</v>
       </c>
       <c r="B279" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C279" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E279" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6255,13 +6258,13 @@
         <v>70</v>
       </c>
       <c r="B280" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C280" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E280" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6269,13 +6272,13 @@
         <v>70</v>
       </c>
       <c r="B281" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="C281" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="E281" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6283,10 +6286,10 @@
         <v>70</v>
       </c>
       <c r="B282" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C282" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E282" t="s">
         <v>107</v>
@@ -6297,13 +6300,13 @@
         <v>70</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C283" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E283" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6311,13 +6314,13 @@
         <v>70</v>
       </c>
       <c r="B284" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C284" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E284" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6325,13 +6328,13 @@
         <v>70</v>
       </c>
       <c r="B285" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="C285" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="E285" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6339,13 +6342,13 @@
         <v>70</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C286" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E286" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6353,13 +6356,13 @@
         <v>70</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C287" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E287" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6367,13 +6370,13 @@
         <v>70</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C288" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E288" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6381,13 +6384,13 @@
         <v>70</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C289" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E289" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6395,13 +6398,13 @@
         <v>70</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C290" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E290" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6409,13 +6412,13 @@
         <v>70</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C291" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E291" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6423,13 +6426,13 @@
         <v>70</v>
       </c>
       <c r="B292" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C292" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E292" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6437,13 +6440,13 @@
         <v>70</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C293" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E293" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6451,13 +6454,13 @@
         <v>70</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C294" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E294" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6465,13 +6468,13 @@
         <v>70</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C295" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E295" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6479,13 +6482,13 @@
         <v>70</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C296" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E296" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6493,13 +6496,13 @@
         <v>70</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C297" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E297" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6507,13 +6510,13 @@
         <v>70</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C298" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E298" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6521,13 +6524,13 @@
         <v>70</v>
       </c>
       <c r="B299" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C299" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E299" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6535,10 +6538,10 @@
         <v>70</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C300" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E300" t="s">
         <v>116</v>
@@ -6549,13 +6552,13 @@
         <v>70</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="C301" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="E301" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6563,13 +6566,13 @@
         <v>70</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C302" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E302" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6577,13 +6580,13 @@
         <v>70</v>
       </c>
       <c r="B303" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C303" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E303" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6591,13 +6594,13 @@
         <v>70</v>
       </c>
       <c r="B304" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C304" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E304" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6605,847 +6608,847 @@
         <v>70</v>
       </c>
       <c r="B305" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="C305" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="E305" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B306" t="s">
-        <v>313</v>
-      </c>
-      <c r="C306" t="s">
-        <v>313</v>
-      </c>
-      <c r="E306" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B307" t="s">
-        <v>314</v>
-      </c>
-      <c r="C307" t="s">
-        <v>314</v>
-      </c>
-      <c r="E307" t="s">
-        <v>91</v>
-      </c>
+      <c r="A306" s="2"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
-        <v>70</v>
+        <v>436</v>
       </c>
       <c r="B308" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C308" t="s">
-        <v>315</v>
-      </c>
-      <c r="E308" t="s">
-        <v>85</v>
+        <v>361</v>
+      </c>
+      <c r="F308" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
-        <v>70</v>
+        <v>436</v>
       </c>
       <c r="B309" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C309" t="s">
-        <v>364</v>
-      </c>
-      <c r="E309" t="s">
-        <v>115</v>
+        <v>361</v>
+      </c>
+      <c r="F309" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="2"/>
+      <c r="A310" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B310" t="s">
+        <v>361</v>
+      </c>
+      <c r="C310" t="s">
+        <v>361</v>
+      </c>
+      <c r="F310" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B311" t="s">
+        <v>361</v>
+      </c>
+      <c r="C311" t="s">
+        <v>361</v>
+      </c>
+      <c r="F311" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B312" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C312" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F312" t="s">
-        <v>282</v>
+        <v>138</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B313" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C313" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F313" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B314" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C314" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F314" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B315" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C315" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F315" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B316" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C316" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F316" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B317" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C317" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F317" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B318" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C318" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F318" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B319" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C319" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F319" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B320" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C320" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F320" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B321" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C321" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F321" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B322" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C322" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F322" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B323" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C323" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F323" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B324" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C324" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F324" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B325" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C325" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F325" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B326" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C326" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F326" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B327" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C327" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F327" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B328" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C328" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F328" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B329" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C329" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F329" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B330" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C330" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F330" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B331" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C331" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F331" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B332" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C332" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F332" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B333" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C333" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F333" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B334" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C334" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F334" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B335" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C335" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F335" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B336" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C336" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F336" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B337" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C337" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F337" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B338" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C338" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F338" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B339" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C339" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F339" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B340" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C340" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F340" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B341" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C341" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F341" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B342" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C342" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F342" t="s">
-        <v>359</v>
+        <v>84</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B343" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C343" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F343" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B344" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C344" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F344" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B345" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C345" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F345" t="s">
-        <v>245</v>
+        <v>351</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B346" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C346" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F346" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B347" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C347" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F347" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B348" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C348" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F348" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B349" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C349" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F349" t="s">
-        <v>355</v>
+        <v>127</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B350" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C350" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F350" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B351" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C351" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F351" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B352" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C352" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F352" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B353" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C353" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F353" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B354" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C354" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F354" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B355" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C355" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F355" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B356" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C356" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F356" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B357" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C357" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F357" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B358" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C358" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F358" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B359" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C359" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F359" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B360" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C360" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F360" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B361" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C361" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F361" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B362" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C362" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F362" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B363" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C363" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F363" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B364" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C364" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F364" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B365" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C365" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F365" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B366" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C366" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F366" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B367" t="s">
         <v>375</v>
@@ -7454,138 +7457,138 @@
         <v>375</v>
       </c>
       <c r="F367" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B368" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C368" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F368" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B369" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C369" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F369" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B370" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C370" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F370" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B371" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C371" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F371" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B372" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C372" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F372" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B373" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F373" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B374" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F374" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B375" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F375" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B376" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F376" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B377" t="s">
         <v>379</v>
@@ -7594,502 +7597,502 @@
         <v>379</v>
       </c>
       <c r="F377" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F378" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F379" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B380" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F380" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B381" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C381" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F381" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B382" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C382" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F382" t="s">
-        <v>362</v>
+        <v>200</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B383" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C383" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F383" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B384" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C384" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F384" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B385" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C385" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F385" t="s">
-        <v>356</v>
+        <v>254</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B386" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C386" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F386" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B387" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C387" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F387" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B388" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C388" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F388" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B389" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C389" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F389" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B390" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C390" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F390" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B391" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C391" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F391" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B392" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C392" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F392" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B393" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C393" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F393" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B394" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C394" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F394" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B395" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C395" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F395" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B396" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C396" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F396" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B397" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C397" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F397" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B398" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C398" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F398" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B399" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C399" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F399" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B400" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C400" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F400" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B401" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C401" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F401" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B402" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C402" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F402" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B403" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C403" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F403" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B404" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C404" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F404" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B405" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C405" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F405" t="s">
-        <v>291</v>
+        <v>194</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B406" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C406" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F406" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B407" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C407" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F407" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B408" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C408" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F408" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B409" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C409" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F409" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B410" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C410" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F410" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B411" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C411" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F411" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B412" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C412" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F412" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B413" t="s">
         <v>391</v>
@@ -8098,614 +8101,614 @@
         <v>391</v>
       </c>
       <c r="F413" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B414" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C414" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F414" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B415" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C415" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F415" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B416" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C416" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F416" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B417" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C417" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F417" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B418" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C418" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F418" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B419" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C419" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F419" t="s">
-        <v>293</v>
+        <v>133</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B420" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C420" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F420" t="s">
-        <v>287</v>
+        <v>134</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B421" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C421" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F421" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B422" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C422" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F422" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B423" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C423" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F423" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B424" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C424" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F424" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B425" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C425" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F425" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B426" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C426" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F426" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B427" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C427" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F427" t="s">
-        <v>289</v>
+        <v>131</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B428" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C428" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F428" t="s">
-        <v>301</v>
+        <v>136</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B429" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C429" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F429" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B430" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C430" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F430" t="s">
-        <v>364</v>
+        <v>160</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B431" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C431" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F431" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B432" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C432" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F432" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C433" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F433" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B434" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C434" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F434" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B435" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C435" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F435" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C436" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F436" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C437" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F437" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C438" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F438" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B439" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C439" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F439" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B440" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C440" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F440" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B441" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C441" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F441" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B442" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C442" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F442" t="s">
-        <v>232</v>
+        <v>350</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B443" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C443" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F443" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B444" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C444" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F444" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B445" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C445" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F445" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B446" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C446" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F446" t="s">
-        <v>354</v>
+        <v>125</v>
       </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B447" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C447" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F447" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B448" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C448" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F448" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B449" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C449" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F449" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B450" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C450" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F450" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B451" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C451" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F451" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B452" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C452" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F452" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B453" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C453" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F453" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B454" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C454" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F454" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B455" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C455" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F455" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B456" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C456" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F456" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B457" t="s">
         <v>400</v>
@@ -8714,12 +8717,12 @@
         <v>400</v>
       </c>
       <c r="F457" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B458" t="s">
         <v>401</v>
@@ -8728,12 +8731,12 @@
         <v>401</v>
       </c>
       <c r="F458" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B459" t="s">
         <v>402</v>
@@ -8742,12 +8745,12 @@
         <v>402</v>
       </c>
       <c r="F459" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B460" t="s">
         <v>403</v>
@@ -8756,152 +8759,152 @@
         <v>403</v>
       </c>
       <c r="F460" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B461" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C461" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F461" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B462" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C462" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F462" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B463" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C463" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F463" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B464" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C464" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F464" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B465" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C465" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F465" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B466" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C466" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F466" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B467" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C467" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F467" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B468" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C468" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F468" t="s">
-        <v>353</v>
+        <v>182</v>
       </c>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B469" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C469" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F469" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B470" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C470" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F470" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B471" t="s">
         <v>409</v>
@@ -8910,12 +8913,12 @@
         <v>409</v>
       </c>
       <c r="F471" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B472" t="s">
         <v>410</v>
@@ -8924,12 +8927,12 @@
         <v>410</v>
       </c>
       <c r="F472" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B473" t="s">
         <v>411</v>
@@ -8938,278 +8941,278 @@
         <v>411</v>
       </c>
       <c r="F473" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B474" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C474" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F474" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B475" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C475" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F475" t="s">
-        <v>361</v>
+        <v>237</v>
       </c>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B476" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C476" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F476" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B477" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C477" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F477" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B478" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C478" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F478" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B479" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C479" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F479" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B480" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C480" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F480" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B481" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C481" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F481" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B482" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C482" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F482" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B483" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C483" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F483" t="s">
-        <v>139</v>
+        <v>348</v>
       </c>
     </row>
     <row r="484" spans="1:6">
       <c r="A484" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B484" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C484" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F484" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B485" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C485" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F485" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B486" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C486" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F486" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B487" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C487" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F487" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B488" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C488" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F488" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B489" t="s">
-        <v>420</v>
+        <v>297</v>
       </c>
       <c r="C489" t="s">
-        <v>420</v>
+        <v>297</v>
       </c>
       <c r="F489" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B490" t="s">
-        <v>421</v>
+        <v>297</v>
       </c>
       <c r="C490" t="s">
-        <v>421</v>
+        <v>297</v>
       </c>
       <c r="F490" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="491" spans="1:6">
       <c r="A491" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B491" t="s">
-        <v>422</v>
+        <v>297</v>
       </c>
       <c r="C491" t="s">
-        <v>422</v>
+        <v>297</v>
       </c>
       <c r="F491" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="492" spans="1:6">
       <c r="A492" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B492" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="C492" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="F492" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B493" t="s">
         <v>297</v>
@@ -9218,12 +9221,12 @@
         <v>297</v>
       </c>
       <c r="F493" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B494" t="s">
         <v>297</v>
@@ -9232,12 +9235,12 @@
         <v>297</v>
       </c>
       <c r="F494" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B495" t="s">
         <v>297</v>
@@ -9246,12 +9249,12 @@
         <v>297</v>
       </c>
       <c r="F495" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B496" t="s">
         <v>297</v>
@@ -9260,12 +9263,12 @@
         <v>297</v>
       </c>
       <c r="F496" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
     </row>
     <row r="497" spans="1:6">
       <c r="A497" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B497" t="s">
         <v>297</v>
@@ -9274,12 +9277,12 @@
         <v>297</v>
       </c>
       <c r="F497" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
     </row>
     <row r="498" spans="1:6">
       <c r="A498" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B498" t="s">
         <v>297</v>
@@ -9288,12 +9291,12 @@
         <v>297</v>
       </c>
       <c r="F498" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
     </row>
     <row r="499" spans="1:6">
       <c r="A499" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B499" t="s">
         <v>297</v>
@@ -9302,12 +9305,12 @@
         <v>297</v>
       </c>
       <c r="F499" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
     </row>
     <row r="500" spans="1:6">
       <c r="A500" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B500" t="s">
         <v>297</v>
@@ -9316,12 +9319,12 @@
         <v>297</v>
       </c>
       <c r="F500" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
     </row>
     <row r="501" spans="1:6">
       <c r="A501" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B501" t="s">
         <v>297</v>
@@ -9330,12 +9333,12 @@
         <v>297</v>
       </c>
       <c r="F501" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B502" t="s">
         <v>297</v>
@@ -9344,12 +9347,12 @@
         <v>297</v>
       </c>
       <c r="F502" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B503" t="s">
         <v>297</v>
@@ -9358,12 +9361,12 @@
         <v>297</v>
       </c>
       <c r="F503" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
     </row>
     <row r="504" spans="1:6">
       <c r="A504" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B504" t="s">
         <v>297</v>
@@ -9372,12 +9375,12 @@
         <v>297</v>
       </c>
       <c r="F504" t="s">
-        <v>161</v>
+        <v>450</v>
       </c>
     </row>
     <row r="505" spans="1:6">
       <c r="A505" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B505" t="s">
         <v>297</v>
@@ -9386,12 +9389,12 @@
         <v>297</v>
       </c>
       <c r="F505" t="s">
-        <v>187</v>
+        <v>451</v>
       </c>
     </row>
     <row r="506" spans="1:6">
       <c r="A506" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B506" t="s">
         <v>297</v>
@@ -9400,12 +9403,12 @@
         <v>297</v>
       </c>
       <c r="F506" t="s">
-        <v>297</v>
+        <v>452</v>
       </c>
     </row>
     <row r="507" spans="1:6">
       <c r="A507" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B507" t="s">
         <v>297</v>
@@ -9414,12 +9417,12 @@
         <v>297</v>
       </c>
       <c r="F507" t="s">
-        <v>271</v>
+        <v>453</v>
       </c>
     </row>
     <row r="508" spans="1:6">
       <c r="A508" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B508" t="s">
         <v>297</v>
@@ -9428,12 +9431,12 @@
         <v>297</v>
       </c>
       <c r="F508" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="509" spans="1:6">
       <c r="A509" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B509" t="s">
         <v>297</v>
@@ -9442,12 +9445,12 @@
         <v>297</v>
       </c>
       <c r="F509" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="510" spans="1:6">
       <c r="A510" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B510" t="s">
         <v>297</v>
@@ -9456,12 +9459,12 @@
         <v>297</v>
       </c>
       <c r="F510" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="511" spans="1:6">
       <c r="A511" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B511" t="s">
         <v>297</v>
@@ -9470,12 +9473,12 @@
         <v>297</v>
       </c>
       <c r="F511" t="s">
-        <v>461</v>
+        <v>185</v>
       </c>
     </row>
     <row r="512" spans="1:6">
       <c r="A512" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B512" t="s">
         <v>297</v>
@@ -9484,12 +9487,12 @@
         <v>297</v>
       </c>
       <c r="F512" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="513" spans="1:6">
       <c r="A513" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B513" t="s">
         <v>297</v>
@@ -9498,12 +9501,12 @@
         <v>297</v>
       </c>
       <c r="F513" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="514" spans="1:6">
       <c r="A514" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B514" t="s">
         <v>297</v>
@@ -9512,12 +9515,12 @@
         <v>297</v>
       </c>
       <c r="F514" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="515" spans="1:6">
       <c r="A515" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B515" t="s">
         <v>297</v>
@@ -9526,12 +9529,12 @@
         <v>297</v>
       </c>
       <c r="F515" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
     </row>
     <row r="516" spans="1:6">
       <c r="A516" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B516" t="s">
         <v>297</v>
@@ -9540,12 +9543,12 @@
         <v>297</v>
       </c>
       <c r="F516" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B517" t="s">
         <v>297</v>
@@ -9554,12 +9557,12 @@
         <v>297</v>
       </c>
       <c r="F517" t="s">
-        <v>467</v>
+        <v>310</v>
       </c>
     </row>
     <row r="518" spans="1:6">
       <c r="A518" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B518" t="s">
         <v>297</v>
@@ -9568,12 +9571,12 @@
         <v>297</v>
       </c>
       <c r="F518" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="519" spans="1:6">
       <c r="A519" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B519" t="s">
         <v>297</v>
@@ -9582,12 +9585,12 @@
         <v>297</v>
       </c>
       <c r="F519" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="520" spans="1:6">
       <c r="A520" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B520" t="s">
         <v>297</v>
@@ -9596,12 +9599,12 @@
         <v>297</v>
       </c>
       <c r="F520" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="521" spans="1:6">
       <c r="A521" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B521" t="s">
         <v>297</v>
@@ -9610,12 +9613,12 @@
         <v>297</v>
       </c>
       <c r="F521" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="522" spans="1:6">
       <c r="A522" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B522" t="s">
         <v>297</v>
@@ -9624,12 +9627,12 @@
         <v>297</v>
       </c>
       <c r="F522" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B523" t="s">
         <v>297</v>
@@ -9638,12 +9641,12 @@
         <v>297</v>
       </c>
       <c r="F523" t="s">
-        <v>466</v>
+        <v>169</v>
       </c>
     </row>
     <row r="524" spans="1:6">
       <c r="A524" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B524" t="s">
         <v>297</v>
@@ -9652,12 +9655,12 @@
         <v>297</v>
       </c>
       <c r="F524" t="s">
-        <v>470</v>
+        <v>173</v>
       </c>
     </row>
     <row r="525" spans="1:6">
       <c r="A525" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B525" t="s">
         <v>297</v>
@@ -9666,12 +9669,12 @@
         <v>297</v>
       </c>
       <c r="F525" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
     </row>
     <row r="526" spans="1:6">
       <c r="A526" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B526" t="s">
         <v>297</v>
@@ -9680,12 +9683,12 @@
         <v>297</v>
       </c>
       <c r="F526" t="s">
-        <v>472</v>
+        <v>307</v>
       </c>
     </row>
     <row r="527" spans="1:6">
       <c r="A527" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B527" t="s">
         <v>297</v>
@@ -9694,12 +9697,12 @@
         <v>297</v>
       </c>
       <c r="F527" t="s">
-        <v>169</v>
+        <v>308</v>
       </c>
     </row>
     <row r="528" spans="1:6">
       <c r="A528" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B528" t="s">
         <v>297</v>
@@ -9708,82 +9711,82 @@
         <v>297</v>
       </c>
       <c r="F528" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
     </row>
     <row r="529" spans="1:6">
       <c r="A529" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B529" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="C529" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="F529" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="530" spans="1:6">
       <c r="A530" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B530" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="C530" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="F530" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="531" spans="1:6">
       <c r="A531" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B531" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="C531" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="F531" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
     </row>
     <row r="532" spans="1:6">
       <c r="A532" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B532" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="C532" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="F532" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
     </row>
     <row r="533" spans="1:6">
       <c r="A533" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B533" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C533" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F533" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
     </row>
     <row r="534" spans="1:6">
       <c r="A534" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B534" t="s">
         <v>424</v>
@@ -9792,12 +9795,12 @@
         <v>424</v>
       </c>
       <c r="F534" t="s">
-        <v>299</v>
+        <v>147</v>
       </c>
     </row>
     <row r="535" spans="1:6">
       <c r="A535" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B535" t="s">
         <v>425</v>
@@ -9806,68 +9809,12 @@
         <v>425</v>
       </c>
       <c r="F535" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6">
-      <c r="A536" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B536" t="s">
-        <v>426</v>
-      </c>
-      <c r="C536" t="s">
-        <v>426</v>
-      </c>
-      <c r="F536" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6">
-      <c r="A537" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B537" t="s">
-        <v>427</v>
-      </c>
-      <c r="C537" t="s">
-        <v>427</v>
-      </c>
-      <c r="F537" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6">
-      <c r="A538" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B538" t="s">
-        <v>428</v>
-      </c>
-      <c r="C538" t="s">
-        <v>428</v>
-      </c>
-      <c r="F538" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6">
-      <c r="A539" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B539" t="s">
-        <v>429</v>
-      </c>
-      <c r="C539" t="s">
-        <v>429</v>
-      </c>
-      <c r="F539" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:E52">
-    <sortCondition ref="B16:B52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:E48">
+    <sortCondition ref="B12:B48"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9879,7 +9826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9901,18 +9848,18 @@
         <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>14</v>
